--- a/medicine/Enfance/Helen_Cresswell/Helen_Cresswell.xlsx
+++ b/medicine/Enfance/Helen_Cresswell/Helen_Cresswell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helen Creswell est une prolifique auteur britannique (11 juillet 1934, Nottingham – 26 septembre 2005, Eakring, Nottinghamshire), créatrice de Lizzie Dripping et de la famille d’excentriques des Bagthorpe ; elle publia plus d’une centaine de romans-jeunesse et fut la scénariste de quelques séries télévisées dont E. Nesbit’s Five Children &amp; It and The Phoenix &amp; the Carpet qui mettait en vedette sa série sur Lizzie Dripping qui lui vaudra un prix BAFTA. Elle a étudié au Nottingham High School for Girls et possède un diplôme du King's College London.
 Elle est morte chez elle en 2005 à Eakring dans le Nottinghamshire, à l'âge de 71 ans d'un cancer de l'ovaire.
